--- a/qa/【SQA质量月报】福州软件部202010.xlsx
+++ b/qa/【SQA质量月报】福州软件部202010.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="34">
   <si>
     <t>维度</t>
   </si>
@@ -128,15 +128,6 @@
     <t>总遗留需求数</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>51.61%</t>
   </si>
   <si>
@@ -146,190 +137,20 @@
     <t>54.54%</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>-70.14</t>
-  </si>
-  <si>
-    <t>-727.76</t>
-  </si>
-  <si>
-    <t>-1446.57</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>1.66</t>
-  </si>
-  <si>
-    <t>2.44</t>
-  </si>
-  <si>
-    <t>0.94</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>244(127/117)</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>53.26%</t>
-  </si>
-  <si>
-    <t>58.03%</t>
-  </si>
-  <si>
-    <t>42.37%</t>
-  </si>
-  <si>
-    <t>-4.01</t>
-  </si>
-  <si>
-    <t>-230.83</t>
-  </si>
-  <si>
-    <t>-988.98</t>
-  </si>
-  <si>
-    <t>1.58</t>
-  </si>
-  <si>
-    <t>1.45</t>
-  </si>
-  <si>
-    <t>1.86</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>911</t>
-  </si>
-  <si>
-    <t>283</t>
-  </si>
-  <si>
-    <t>252</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>293</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>279</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>39</t>
+    <t>222(114/108)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="#,#0"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1104,7 +925,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1150,140 +971,50 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="66">
@@ -1730,45 +1461,33 @@
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s" s="15">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s" s="30">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s" s="50">
-        <v>75</v>
-      </c>
+      <c r="C2" s="15" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s" s="15">
-        <v>31</v>
-      </c>
-      <c r="D3" t="s" s="30">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s" s="50">
-        <v>76</v>
-      </c>
+      <c r="C3" s="15" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="16.5" outlineLevel="2" spans="1:5">
       <c r="A4" s="6"/>
       <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s" s="15">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s" s="30">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s" s="50">
-        <v>30</v>
-      </c>
+      <c r="C4" s="15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:5">
       <c r="A5" s="3" t="s">
@@ -1777,225 +1496,165 @@
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s" s="16">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s" s="31">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s" s="45">
-        <v>66</v>
-      </c>
+      <c r="C5" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A6" s="6"/>
       <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s" s="16">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s" s="31">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s" s="45">
-        <v>67</v>
-      </c>
+      <c r="C6" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A7" s="6"/>
       <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s" s="16">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s" s="31">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s" s="45">
-        <v>68</v>
-      </c>
+      <c r="C7" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:5">
       <c r="A8" s="6"/>
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s" s="17">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s" s="32">
-        <v>36</v>
-      </c>
-      <c r="E8" t="s" s="51">
-        <v>77</v>
-      </c>
+      <c r="C8" s="17" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A9" s="6"/>
       <c r="B9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s" s="17">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s" s="32">
-        <v>37</v>
-      </c>
-      <c r="E9" t="s" s="51">
-        <v>78</v>
-      </c>
+      <c r="C9" s="17" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A10" s="6"/>
       <c r="B10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C10" t="s" s="17">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s" s="32">
-        <v>30</v>
-      </c>
-      <c r="E10" t="s" s="51">
-        <v>76</v>
-      </c>
+      <c r="C10" s="17" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:5">
       <c r="A11" s="6"/>
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C11" t="s" s="18">
-        <v>38</v>
-      </c>
-      <c r="D11" t="s" s="33">
-        <v>38</v>
-      </c>
-      <c r="E11" t="s" s="46">
-        <v>69</v>
-      </c>
+      <c r="C11" s="18" t="n">
+        <v>-68.31</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A12" s="6"/>
       <c r="B12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C12" t="s" s="18">
-        <v>39</v>
-      </c>
-      <c r="D12" t="s" s="33">
-        <v>39</v>
-      </c>
-      <c r="E12" t="s" s="46">
-        <v>70</v>
-      </c>
+      <c r="C12" s="18" t="n">
+        <v>-671.13</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A13" s="6"/>
       <c r="B13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C13" t="s" s="18">
-        <v>40</v>
-      </c>
-      <c r="D13" t="s" s="33">
-        <v>40</v>
-      </c>
-      <c r="E13" t="s" s="46">
-        <v>71</v>
-      </c>
+      <c r="C13" s="18" t="n">
+        <v>-1446.57</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:5">
       <c r="A14" s="6"/>
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C14" t="s" s="19">
-        <v>41</v>
-      </c>
-      <c r="D14" t="s" s="34">
-        <v>41</v>
-      </c>
-      <c r="E14" t="s" s="52">
-        <v>79</v>
-      </c>
+      <c r="C14" s="19" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A15" s="6"/>
       <c r="B15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C15" t="s" s="19">
-        <v>37</v>
-      </c>
-      <c r="D15" t="s" s="34">
-        <v>37</v>
-      </c>
-      <c r="E15" t="s" s="52">
-        <v>80</v>
-      </c>
+      <c r="C15" s="19" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A16" s="6"/>
       <c r="B16" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C16" t="s" s="19">
-        <v>31</v>
-      </c>
-      <c r="D16" t="s" s="34">
-        <v>31</v>
-      </c>
-      <c r="E16" t="s" s="52">
-        <v>60</v>
-      </c>
+      <c r="C16" s="19" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:5">
       <c r="A17" s="6"/>
       <c r="B17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C17" t="s" s="20">
-        <v>42</v>
-      </c>
-      <c r="D17" t="s" s="35">
-        <v>42</v>
-      </c>
-      <c r="E17" t="s" s="47">
-        <v>72</v>
-      </c>
+      <c r="C17" s="20" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A18" s="6"/>
       <c r="B18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C18" t="s" s="20">
-        <v>43</v>
-      </c>
-      <c r="D18" t="s" s="35">
-        <v>43</v>
-      </c>
-      <c r="E18" t="s" s="47">
-        <v>73</v>
-      </c>
+      <c r="C18" s="20" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A19" s="6"/>
       <c r="B19" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C19" t="s" s="20">
-        <v>44</v>
-      </c>
-      <c r="D19" t="s" s="35">
-        <v>44</v>
-      </c>
-      <c r="E19" t="s" s="47">
-        <v>74</v>
-      </c>
+      <c r="C19" s="20" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:5">
       <c r="A20" s="10" t="s">
@@ -2058,225 +1717,165 @@
       <c r="B23" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C23" t="s" s="21">
-        <v>30</v>
-      </c>
-      <c r="D23" t="s" s="36">
-        <v>30</v>
-      </c>
-      <c r="E23" t="s" s="53">
-        <v>59</v>
-      </c>
+      <c r="C23" s="21" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A24" s="10"/>
       <c r="B24" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C24" t="s" s="21">
-        <v>30</v>
-      </c>
-      <c r="D24" t="s" s="36">
-        <v>30</v>
-      </c>
-      <c r="E24" t="s" s="53">
-        <v>81</v>
-      </c>
+      <c r="C24" s="21" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A25" s="10"/>
       <c r="B25" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C25" t="s" s="21">
-        <v>45</v>
-      </c>
-      <c r="D25" t="s" s="36">
-        <v>45</v>
-      </c>
-      <c r="E25" t="s" s="53">
-        <v>32</v>
-      </c>
+      <c r="C25" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:5">
       <c r="A26" s="10"/>
       <c r="B26" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C26" t="s" s="22">
-        <v>46</v>
-      </c>
-      <c r="D26" t="s" s="37">
-        <v>46</v>
-      </c>
-      <c r="E26" t="s" s="54">
-        <v>55</v>
-      </c>
+      <c r="C26" s="22" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A27" s="10"/>
       <c r="B27" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C27" t="s" s="22">
-        <v>45</v>
-      </c>
-      <c r="D27" t="s" s="37">
-        <v>45</v>
-      </c>
-      <c r="E27" t="s" s="54">
-        <v>32</v>
-      </c>
+      <c r="C27" s="22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A28" s="10"/>
       <c r="B28" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C28" t="s" s="22">
-        <v>46</v>
-      </c>
-      <c r="D28" t="s" s="37">
-        <v>46</v>
-      </c>
-      <c r="E28" t="s" s="54">
-        <v>82</v>
-      </c>
+      <c r="C28" s="22" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:5">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C29" t="s" s="23">
-        <v>47</v>
-      </c>
-      <c r="D29" t="s" s="38">
-        <v>47</v>
-      </c>
-      <c r="E29" t="s" s="55">
-        <v>83</v>
-      </c>
+      <c r="C29" s="23" t="n">
+        <v>166.0</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
     </row>
     <row r="30" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A30" s="10"/>
       <c r="B30" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C30" t="s" s="23">
-        <v>48</v>
-      </c>
-      <c r="D30" t="s" s="38">
-        <v>48</v>
-      </c>
-      <c r="E30" t="s" s="55">
-        <v>84</v>
-      </c>
+      <c r="C30" s="23" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
     </row>
     <row r="31" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A31" s="10"/>
       <c r="B31" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C31" t="s" s="23">
-        <v>49</v>
-      </c>
-      <c r="D31" t="s" s="38">
-        <v>49</v>
-      </c>
-      <c r="E31" t="s" s="55">
-        <v>85</v>
-      </c>
+      <c r="C31" s="23" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
     </row>
     <row r="32" s="1" customFormat="1" ht="21" customHeight="1" outlineLevel="1" spans="1:5">
       <c r="A32" s="10"/>
       <c r="B32" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C32" t="s" s="24">
-        <v>50</v>
-      </c>
-      <c r="D32" t="s" s="39">
-        <v>50</v>
-      </c>
-      <c r="E32" t="s" s="48">
-        <v>50</v>
-      </c>
+      <c r="C32" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
     </row>
     <row r="33" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A33" s="10"/>
       <c r="B33" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C33" t="s" s="24">
-        <v>51</v>
-      </c>
-      <c r="D33" t="s" s="39">
-        <v>51</v>
-      </c>
-      <c r="E33" t="s" s="48">
-        <v>51</v>
-      </c>
+      <c r="C33" s="24" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
     </row>
     <row r="34" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A34" s="10"/>
       <c r="B34" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C34" t="s" s="24">
-        <v>52</v>
-      </c>
-      <c r="D34" t="s" s="39">
-        <v>52</v>
-      </c>
-      <c r="E34" t="s" s="48">
-        <v>52</v>
-      </c>
+      <c r="C34" s="24" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
     </row>
     <row r="35" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:5">
       <c r="A35" s="10"/>
       <c r="B35" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C35" t="s" s="25">
-        <v>53</v>
-      </c>
-      <c r="D35" t="s" s="40">
-        <v>53</v>
-      </c>
-      <c r="E35" t="s" s="56">
-        <v>55</v>
-      </c>
+      <c r="C35" s="25" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
     </row>
     <row r="36" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A36" s="10"/>
       <c r="B36" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C36" t="s" s="25">
-        <v>54</v>
-      </c>
-      <c r="D36" t="s" s="40">
-        <v>54</v>
-      </c>
-      <c r="E36" t="s" s="56">
-        <v>53</v>
-      </c>
+      <c r="C36" s="25" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
     </row>
     <row r="37" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A37" s="10"/>
       <c r="B37" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C37" t="s" s="25">
-        <v>54</v>
-      </c>
-      <c r="D37" t="s" s="40">
-        <v>54</v>
-      </c>
-      <c r="E37" t="s" s="56">
-        <v>86</v>
-      </c>
+      <c r="C37" s="25" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
     </row>
     <row r="38" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:5">
       <c r="A38" s="10" t="s">
@@ -2393,135 +1992,99 @@
       <c r="B44" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C44" t="s" s="27">
-        <v>58</v>
-      </c>
-      <c r="D44" t="s" s="42">
-        <v>58</v>
-      </c>
-      <c r="E44" t="s" s="58">
-        <v>89</v>
-      </c>
+      <c r="C44" s="27" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
     </row>
     <row r="45" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A45" s="10"/>
       <c r="B45" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C45" t="s" s="27">
-        <v>59</v>
-      </c>
-      <c r="D45" t="s" s="42">
-        <v>59</v>
-      </c>
-      <c r="E45" t="s" s="58">
-        <v>48</v>
-      </c>
+      <c r="C45" s="27" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
     </row>
     <row r="46" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A46" s="10"/>
       <c r="B46" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C46" t="s" s="27">
-        <v>60</v>
-      </c>
-      <c r="D46" t="s" s="42">
-        <v>60</v>
-      </c>
-      <c r="E46" t="s" s="58">
-        <v>90</v>
-      </c>
+      <c r="C46" s="27" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
     </row>
     <row r="47" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:5">
       <c r="A47" s="10"/>
       <c r="B47" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C47" t="s" s="28">
-        <v>61</v>
-      </c>
-      <c r="D47" t="s" s="43">
-        <v>61</v>
-      </c>
-      <c r="E47" t="s" s="59">
-        <v>91</v>
-      </c>
+      <c r="C47" s="28" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
     </row>
     <row r="48" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A48" s="10"/>
       <c r="B48" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C48" t="s" s="28">
-        <v>36</v>
-      </c>
-      <c r="D48" t="s" s="43">
-        <v>36</v>
-      </c>
-      <c r="E48" t="s" s="59">
-        <v>92</v>
-      </c>
+      <c r="C48" s="28" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
     </row>
     <row r="49" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A49" s="10"/>
       <c r="B49" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C49" t="s" s="28">
-        <v>62</v>
-      </c>
-      <c r="D49" t="s" s="43">
-        <v>62</v>
-      </c>
-      <c r="E49" t="s" s="59">
-        <v>93</v>
-      </c>
+      <c r="C49" s="28" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
     </row>
     <row r="50" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:5">
       <c r="A50" s="10"/>
       <c r="B50" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C50" t="s" s="26">
-        <v>55</v>
-      </c>
-      <c r="D50" t="s" s="41">
-        <v>55</v>
-      </c>
-      <c r="E50" t="s" s="57">
-        <v>87</v>
-      </c>
+      <c r="C50" s="26" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
     </row>
     <row r="51" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A51" s="10"/>
       <c r="B51" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C51" t="s" s="26">
-        <v>56</v>
-      </c>
-      <c r="D51" t="s" s="41">
-        <v>56</v>
-      </c>
-      <c r="E51" t="s" s="57">
-        <v>88</v>
-      </c>
+      <c r="C51" s="26" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
     </row>
     <row r="52" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A52" s="10"/>
       <c r="B52" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C52" t="s" s="26">
-        <v>57</v>
-      </c>
-      <c r="D52" t="s" s="41">
-        <v>57</v>
-      </c>
-      <c r="E52" t="s" s="57">
-        <v>76</v>
-      </c>
+      <c r="C52" s="26" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
     </row>
     <row r="53" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:5">
       <c r="A53" s="10"/>
@@ -2582,45 +2145,33 @@
       <c r="B56" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C56" t="s" s="29">
-        <v>63</v>
-      </c>
-      <c r="D56" t="s" s="44">
-        <v>63</v>
-      </c>
-      <c r="E56" t="s" s="49">
-        <v>63</v>
-      </c>
+      <c r="C56" s="29" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
     </row>
     <row r="57" s="1" customFormat="1" ht="16.5" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A57" s="10"/>
       <c r="B57" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C57" t="s" s="29">
-        <v>64</v>
-      </c>
-      <c r="D57" t="s" s="44">
-        <v>64</v>
-      </c>
-      <c r="E57" t="s" s="49">
-        <v>64</v>
-      </c>
+      <c r="C57" s="29" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
     </row>
     <row r="58" s="1" customFormat="1" ht="16.5" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A58" s="10"/>
       <c r="B58" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C58" t="s" s="29">
-        <v>65</v>
-      </c>
-      <c r="D58" t="s" s="44">
-        <v>65</v>
-      </c>
-      <c r="E58" t="s" s="49">
-        <v>65</v>
-      </c>
+      <c r="C58" s="29" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
